--- a/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
+++ b/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gandiva-Protocol-Dana\NASKAH\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DDCF86-9308-46B3-9B4B-DF59B3BBF101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A90CD4D-62F4-4C62-ABEA-B0A02169970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F32E3143-85B8-4360-9165-F8A4A8938238}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="118">
   <si>
     <t>Penyakit</t>
   </si>
   <si>
     <t>Gejala</t>
-  </si>
-  <si>
-    <t>No.</t>
   </si>
   <si>
     <t>P01</t>
@@ -396,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +414,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -430,7 +452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -447,11 +469,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,7 +523,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,81 +866,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3597296D-1858-4ED9-A2DC-E54E7CD53A8C}">
-  <dimension ref="F5:AG79"/>
+  <dimension ref="F5:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q13" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="4.5546875" style="1" customWidth="1"/>
-    <col min="9" max="19" width="8.88671875" style="1"/>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="6.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" style="1" customWidth="1"/>
+    <col min="12" max="15" width="3.21875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
     <col min="20" max="20" width="10.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="77.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="55" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="L5" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="6:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="6:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="6:33" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="6:33" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="R7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="U7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="6:33" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -860,26 +970,27 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="T8" s="1" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>36</v>
+      <c r="I9" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>36</v>
+      <c r="K9" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -887,132 +998,138 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="T9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>38</v>
+      <c r="T9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>36</v>
+      <c r="H10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="6:33" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+      <c r="H11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F11" s="4"/>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>36</v>
+      <c r="I11" s="21"/>
+      <c r="J11" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="2"/>
-      <c r="T11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>46</v>
+      <c r="T11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F12" s="4"/>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>36</v>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>36</v>
+      <c r="M12" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="T12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>66</v>
+      <c r="Q12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="X12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="AB12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
+      <c r="H13" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>36</v>
+      <c r="K13" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1020,205 +1137,225 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="T13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>27</v>
+      <c r="T13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H15" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="T14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>36</v>
+      <c r="L15" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H16" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>36</v>
+      <c r="M16" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="T16" s="1" t="s">
+      <c r="R16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H17" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H17" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>36</v>
+      <c r="L17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H18" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H18" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>36</v>
+      <c r="M18" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>36</v>
+      <c r="J19" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>36</v>
+      <c r="I20" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1228,531 +1365,822 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H32" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H36" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H37" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H38" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H39" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H42" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H48" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H49" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M49" s="12"/>
+      <c r="Q49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H50" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H52" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H53" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H54" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+    </row>
+    <row r="62" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+    </row>
+    <row r="63" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+    </row>
+    <row r="64" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+    </row>
+    <row r="65" spans="17:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q65" s="3"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+    </row>
+    <row r="66" spans="17:22" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+    </row>
+    <row r="67" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+    </row>
+    <row r="68" spans="17:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+    </row>
+    <row r="69" spans="17:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S69" s="10"/>
+      <c r="T69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="1" t="s">
+      <c r="V69" s="10"/>
+    </row>
+    <row r="70" spans="17:22" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="10"/>
+      <c r="T70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U70" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="S71" s="10"/>
+      <c r="T71" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="1" t="s">
+      <c r="U71" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T73" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="1" t="s">
+      <c r="U73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T75" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC24" s="1" t="s">
+      <c r="U75" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="1" t="s">
+      <c r="U76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="U77" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="T78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="T32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF48" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG51" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG54" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="20:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-    </row>
-    <row r="69" spans="20:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U69" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="20:21" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="T70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U74" s="1" t="s">
+      <c r="U78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="17:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T79" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U78" s="1" t="s">
+      <c r="U79" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    <row r="80" spans="17:22" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
+++ b/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gandiva-Protocol-Dana\NASKAH\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A90CD4D-62F4-4C62-ABEA-B0A02169970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69498B28-E156-4C8C-9A45-65812EEF6ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F32E3143-85B8-4360-9165-F8A4A8938238}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="157">
   <si>
     <t>Penyakit</t>
   </si>
@@ -387,6 +388,123 @@
   </si>
   <si>
     <t>Jerawatan</t>
+  </si>
+  <si>
+    <t>p01</t>
+  </si>
+  <si>
+    <t>p02</t>
+  </si>
+  <si>
+    <t>p03</t>
+  </si>
+  <si>
+    <t>p04</t>
+  </si>
+  <si>
+    <t>p05</t>
+  </si>
+  <si>
+    <t>p06</t>
+  </si>
+  <si>
+    <t>p07</t>
+  </si>
+  <si>
+    <t>p08</t>
+  </si>
+  <si>
+    <t>p09</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Pertanyaan</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t>Sistem ini sangat mudah dipelajari</t>
+  </si>
+  <si>
+    <t>Saya merasa nyaman menggunakan sistem ini</t>
+  </si>
+  <si>
+    <t>Bahasa yang digunakan dalam sistem mudah dimengerti</t>
+  </si>
+  <si>
+    <t>Tampilan sistem mudah untuk dipahami</t>
+  </si>
+  <si>
+    <t>Menu yang ada pada sistem mudah dimengerti</t>
+  </si>
+  <si>
+    <t>Tata letak pada sistem ini rapih</t>
+  </si>
+  <si>
+    <t>Tulisan pada sistem ini mudah dibaca</t>
+  </si>
+  <si>
+    <t>Saya merasa puas dengan sistem ini</t>
+  </si>
+  <si>
+    <t>Saya puas dengan hasil diagnosa dari sistem ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keterangan dari diagnosa mudah dipahami </t>
+  </si>
+  <si>
+    <t>10-15%</t>
+  </si>
+  <si>
+    <t>25%-35%</t>
+  </si>
+  <si>
+    <t>2%-5%</t>
+  </si>
+  <si>
+    <t>1%-2%</t>
+  </si>
+  <si>
+    <t>5%-10%</t>
+  </si>
+  <si>
+    <t>primer 5%</t>
+  </si>
+  <si>
+    <t>sekunder 1%-2%</t>
+  </si>
+  <si>
+    <t>5%-7%</t>
+  </si>
+  <si>
+    <t>umum</t>
+  </si>
+  <si>
+    <t>5%-15%</t>
+  </si>
+  <si>
+    <t>endometrasis</t>
+  </si>
+  <si>
+    <t>10%-12%</t>
+  </si>
+  <si>
+    <t>0.1%-1%</t>
+  </si>
+  <si>
+    <t>10%-15%</t>
+  </si>
+  <si>
+    <t>Bobot</t>
+  </si>
+  <si>
+    <t>0.1%</t>
   </si>
 </sst>
 </file>
@@ -513,23 +631,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,21 +650,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3597296D-1858-4ED9-A2DC-E54E7CD53A8C}">
-  <dimension ref="F5:AG80"/>
+  <dimension ref="F5:AH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:R54"/>
+    <sheetView tabSelected="1" topLeftCell="K49" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V79" sqref="T68:V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -884,82 +1017,109 @@
     <col min="16" max="18" width="3.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="1"/>
     <col min="20" max="20" width="10.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="55" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="23.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="6:33" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="15" t="s">
+    <row r="5" spans="6:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="6:34" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="6:33" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="16"/>
+      <c r="Y6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="6:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="24"/>
+      <c r="I7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
+      <c r="S7" s="13"/>
+      <c r="U7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="6:33" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="19" t="s">
+    </row>
+    <row r="8" spans="6:34" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="2"/>
@@ -970,26 +1130,25 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="6" t="s">
+      <c r="U8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="V8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H9" s="19" t="s">
+      <c r="Y8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="2"/>
@@ -998,31 +1157,31 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F10" s="4" t="s">
+    <row r="10" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="2"/>
@@ -1031,29 +1190,29 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="T10" s="6" t="s">
+      <c r="U10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="V10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="6:33" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F11" s="4"/>
-      <c r="H11" s="19" t="s">
+    <row r="11" spans="6:34" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F11" s="22"/>
+      <c r="H11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="2"/>
@@ -1061,74 +1220,74 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="T11" s="6" t="s">
+      <c r="U11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="V11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F12" s="4"/>
-      <c r="H12" s="19" t="s">
+    <row r="12" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F12" s="22"/>
+      <c r="H12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="I12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="6" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="V12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
-      <c r="H13" s="19" t="s">
+    <row r="13" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F13" s="22"/>
+      <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="2"/>
@@ -1137,86 +1296,87 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="T13" s="6" t="s">
+      <c r="U13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="V13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
-      <c r="H14" s="19" t="s">
+    <row r="14" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="F14" s="22"/>
+      <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="13" t="s">
+      <c r="J14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="6" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="U14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="V14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AH14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H15" s="19" t="s">
+    <row r="15" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="H15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M15" s="2"/>
@@ -1224,112 +1384,113 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="T15" s="6" t="s">
+      <c r="U15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="V15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H16" s="19" t="s">
+    <row r="16" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="H16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="10" t="s">
         <v>35</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="6" t="s">
+      <c r="R16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="U16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="V16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AH16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H17" s="19" t="s">
+    <row r="17" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H17" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="13" t="s">
+      <c r="L17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="V17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H18" s="19" t="s">
+    <row r="18" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="T18" s="6" t="s">
+      <c r="U18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="V18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H19" s="19" t="s">
+    <row r="19" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="2"/>
@@ -1337,24 +1498,24 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="T19" s="6" t="s">
+      <c r="U19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="V19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H20" s="19" t="s">
+    <row r="20" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="10" t="s">
         <v>35</v>
       </c>
       <c r="J20" s="2"/>
@@ -1365,816 +1526,938 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="T20" s="6" t="s">
+      <c r="U20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="V20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H21" s="19" t="s">
+    <row r="21" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="6" t="s">
+      <c r="I21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="V21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H22" s="19" t="s">
+    <row r="22" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="6" t="s">
+      <c r="J22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="V22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H23" s="19" t="s">
+    <row r="23" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="6" t="s">
+      <c r="J23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="V23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H24" s="19" t="s">
+    <row r="24" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T24" s="6" t="s">
+      <c r="N24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="V24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H25" s="19" t="s">
+    <row r="25" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="6" t="s">
+      <c r="I25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="U25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="V25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AG25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AH25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H26" s="19" t="s">
+    <row r="26" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T26" s="6" t="s">
+      <c r="K26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="U26" s="6" t="s">
+      <c r="V26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H27" s="19" t="s">
+    <row r="27" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T27" s="6" t="s">
+      <c r="L27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U27" s="6" t="s">
+      <c r="V27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H28" s="19" t="s">
+    <row r="28" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28" s="6" t="s">
+      <c r="L28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="10"/>
+      <c r="U28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U28" s="6" t="s">
+      <c r="V28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG28" s="1" t="s">
+      <c r="AH28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H29" s="19" t="s">
+    <row r="29" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T29" s="6" t="s">
+      <c r="I29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="V29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H30" s="19" t="s">
+    <row r="30" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30" s="6" t="s">
+      <c r="M30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="V30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H31" s="19" t="s">
+    <row r="31" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T31" s="6" t="s">
+      <c r="L31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="V31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H32" s="19" t="s">
+    <row r="32" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T32" s="6" t="s">
+      <c r="L32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="6" t="s">
+      <c r="V32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H33" s="19" t="s">
+    <row r="33" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T33" s="6" t="s">
+      <c r="N33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="V33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H34" s="19" t="s">
+    <row r="34" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="N34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" s="6" t="s">
+      <c r="N34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="U34" s="6" t="s">
+      <c r="V34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H35" s="19" t="s">
+    <row r="35" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T35" s="6" t="s">
+      <c r="N35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U35" s="6" t="s">
+      <c r="V35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H36" s="19" t="s">
+    <row r="36" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O36" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T36" s="6" t="s">
+      <c r="O36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U36" s="6" t="s">
+      <c r="V36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AE36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H37" s="19" t="s">
+    <row r="37" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H37" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="6" t="s">
+      <c r="O37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U37" s="6" t="s">
+      <c r="V37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD37" s="1" t="s">
+      <c r="AE37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AF37" s="1" t="s">
+      <c r="AG37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H38" s="19" t="s">
+    <row r="38" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H38" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T38" s="6" t="s">
+      <c r="O38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="U38" s="6" t="s">
+      <c r="V38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AD38" s="1" t="s">
+      <c r="AE38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE38" s="1" t="s">
+      <c r="AF38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H39" s="19" t="s">
+    <row r="39" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T39" s="6" t="s">
+      <c r="O39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="U39" s="6" t="s">
+      <c r="V39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AD39" s="1" t="s">
+      <c r="AE39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H40" s="19" t="s">
+    <row r="40" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T40" s="6" t="s">
+      <c r="P40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U40" s="6" t="s">
+      <c r="V40" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AE40" s="1" t="s">
+      <c r="AF40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H41" s="19" t="s">
+    <row r="41" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" s="6" t="s">
+      <c r="P41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="U41" s="6" t="s">
+      <c r="V41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AE41" s="1" t="s">
+      <c r="AF41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H42" s="19" t="s">
+    <row r="42" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T42" s="6" t="s">
+      <c r="P42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U42" s="6" t="s">
+      <c r="V42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AE42" s="1" t="s">
+      <c r="AF42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H43" s="19" t="s">
+    <row r="43" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P43" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T43" s="6" t="s">
+      <c r="P43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="U43" s="6" t="s">
+      <c r="V43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AE43" s="1" t="s">
+      <c r="AF43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF43" s="1" t="s">
+      <c r="AG43" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H44" s="19" t="s">
+    <row r="44" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H44" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P44" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T44" s="6" t="s">
+      <c r="P44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U44" s="6" t="s">
+      <c r="V44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AE44" s="1" t="s">
+      <c r="AF44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H45" s="19" t="s">
+    <row r="45" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q45" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T45" s="6" t="s">
+      <c r="Q45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U45" s="6" t="s">
+      <c r="V45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF45" s="1" t="s">
+      <c r="AG45" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H46" s="19" t="s">
+    <row r="46" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q46" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T46" s="6" t="s">
+      <c r="Q46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" s="10"/>
+      <c r="U46" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="U46" s="6" t="s">
+      <c r="V46" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AF46" s="1" t="s">
+      <c r="AG46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG46" s="1" t="s">
+      <c r="AH46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H47" s="19" t="s">
+    <row r="47" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H47" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T47" s="6" t="s">
+      <c r="Q47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="U47" s="6" t="s">
+      <c r="V47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF47" s="1" t="s">
+      <c r="AG47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H48" s="19" t="s">
+    <row r="48" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q48" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T48" s="6" t="s">
+      <c r="Q48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="U48" s="6" t="s">
+      <c r="V48" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AF48" s="1" t="s">
+      <c r="AG48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H49" s="19" t="s">
+    <row r="49" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M49" s="12"/>
-      <c r="Q49" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T49" s="6" t="s">
+      <c r="M49" s="9"/>
+      <c r="Q49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="10"/>
+      <c r="U49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="U49" s="6" t="s">
+      <c r="V49" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AF49" s="1" t="s">
+      <c r="AG49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG49" s="1" t="s">
+      <c r="AH49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H50" s="19" t="s">
+    <row r="50" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q50" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T50" s="6" t="s">
+      <c r="Q50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U50" s="6" t="s">
+      <c r="V50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AF50" s="1" t="s">
+      <c r="AG50" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H51" s="19" t="s">
+    <row r="51" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H51" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="R51" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T51" s="6" t="s">
+      <c r="R51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="10"/>
+      <c r="U51" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="U51" s="6" t="s">
+      <c r="V51" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AG51" s="1" t="s">
+      <c r="AH51" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H52" s="19" t="s">
+    <row r="52" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H52" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T52" s="6" t="s">
+      <c r="I52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="U52" s="6" t="s">
+      <c r="V52" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="Y52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H53" s="19" t="s">
+    <row r="53" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H53" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R53" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T53" s="6" t="s">
+      <c r="R53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="10"/>
+      <c r="U53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="U53" s="6" t="s">
+      <c r="V53" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AG53" s="1" t="s">
+      <c r="AH53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H54" s="20" t="s">
+    <row r="54" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="H54" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="T54" s="8" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="10"/>
+      <c r="U54" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="U54" s="8" t="s">
+      <c r="V54" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AG54" s="1" t="s">
+      <c r="AH54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-    </row>
-    <row r="62" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-    </row>
-    <row r="63" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-    </row>
-    <row r="64" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-    </row>
-    <row r="65" spans="17:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:34" x14ac:dyDescent="0.25">
+      <c r="AG61" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="AH61" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="17:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q65" s="3"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-    </row>
-    <row r="66" spans="17:22" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-    </row>
-    <row r="67" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-    </row>
-    <row r="68" spans="17:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-    </row>
-    <row r="69" spans="17:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S69" s="10"/>
-      <c r="T69" s="9" t="s">
+      <c r="AD65" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AE65" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="AG65" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="AH65" s="21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="17:34" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AD66" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AE66" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AG66" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="AH66" s="21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="67" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="AD67" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="AE67" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AG67" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AH67" s="21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="68" spans="17:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="26"/>
+      <c r="AD68" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AE68" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH68" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="17:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U69" s="9" t="s">
+      <c r="U69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V69" s="10"/>
-    </row>
-    <row r="70" spans="17:22" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="S70" s="10"/>
-      <c r="T70" s="10" t="s">
+      <c r="V69" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG69" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AH69" s="21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70" spans="17:34" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U70" s="10" t="s">
+      <c r="U70" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="S71" s="10"/>
-      <c r="T71" s="10" t="s">
+      <c r="V70" s="27">
+        <f>AVERAGE(AD65:AE65)</f>
+        <v>0.125</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U71" s="10" t="s">
+      <c r="U71" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T72" s="1" t="s">
+      <c r="V71" s="27">
+        <f>AVERAGE(AD66:AE66)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U72" s="1" t="s">
+      <c r="U72" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T73" s="1" t="s">
+      <c r="V72" s="27">
+        <f>AVERAGE(AD67:AE67)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U73" s="1" t="s">
+      <c r="U73" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T74" s="1" t="s">
+      <c r="V73" s="27">
+        <f>AVERAGE(AD68:AE68)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T74" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U74" s="1" t="s">
+      <c r="U74" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T75" s="1" t="s">
+      <c r="V74" s="27">
+        <f>AVERAGE(AG61:AH61)</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U75" s="1" t="s">
+      <c r="U75" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T76" s="1" t="s">
+      <c r="V75" s="27">
+        <f>AVERAGE(AG65:AH65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U76" s="1" t="s">
+      <c r="U76" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T77" s="1" t="s">
+      <c r="V76" s="27">
+        <f t="shared" ref="V76:V79" si="0">AVERAGE(AG66:AH66)</f>
+        <v>0.3</v>
+      </c>
+      <c r="W76" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U77" s="1" t="s">
+      <c r="U77" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="78" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="T78" s="1" t="s">
+      <c r="V77" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T78" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U78" s="1" t="s">
+      <c r="U78" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="79" spans="17:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T79" s="3" t="s">
+      <c r="V78" s="27">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="17:34" x14ac:dyDescent="0.25">
+      <c r="T79" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U79" s="3" t="s">
+      <c r="U79" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="17:22" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="V79" s="28">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W82" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="L5:N5"/>
@@ -2186,4 +2469,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52813558-261C-4A96-B640-F52AA7C1AB99}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
+++ b/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gandiva-Protocol-Dana\NASKAH\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69498B28-E156-4C8C-9A45-65812EEF6ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69001B0-2EFE-43BD-B9EB-5B1AA2E691CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F32E3143-85B8-4360-9165-F8A4A8938238}"/>
+    <workbookView xWindow="5868" yWindow="-36" windowWidth="17280" windowHeight="8880" xr2:uid="{F32E3143-85B8-4360-9165-F8A4A8938238}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="181">
   <si>
     <t>Penyakit</t>
   </si>
@@ -264,9 +264,6 @@
     <t>G27</t>
   </si>
   <si>
-    <t>Kekeringan pada vagina</t>
-  </si>
-  <si>
     <t>G28</t>
   </si>
   <si>
@@ -505,6 +502,81 @@
   </si>
   <si>
     <t>0.1%</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Ket</t>
+  </si>
+  <si>
+    <t>bobot</t>
+  </si>
+  <si>
+    <t>Nilai Bayes</t>
+  </si>
+  <si>
+    <t>Tidak Ada</t>
+  </si>
+  <si>
+    <t>Mungkin</t>
+  </si>
+  <si>
+    <t>Kemungkinan Besar</t>
+  </si>
+  <si>
+    <t>Hampir Pasti</t>
+  </si>
+  <si>
+    <t>Pasti</t>
+  </si>
+  <si>
+    <t>0-0.2</t>
+  </si>
+  <si>
+    <t>0.3-0.4</t>
+  </si>
+  <si>
+    <t>0.5-0.6</t>
+  </si>
+  <si>
+    <t>0.7-0.8</t>
+  </si>
+  <si>
+    <t>0.9-1</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Sedikit</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>Sangat</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Kelainan Pada vagina</t>
+  </si>
+  <si>
+    <t>Hair sutism</t>
   </si>
 </sst>
 </file>
@@ -670,6 +742,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,9 +757,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3597296D-1858-4ED9-A2DC-E54E7CD53A8C}">
-  <dimension ref="F5:AH82"/>
+  <dimension ref="F4:AN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K49" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V79" sqref="T68:V79"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1019,64 +1091,84 @@
     <col min="20" max="20" width="10.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="23.6640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="35.109375" style="1" customWidth="1"/>
+    <col min="25" max="36" width="8.88671875" style="1"/>
+    <col min="37" max="37" width="12.33203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4.21875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="23.44140625" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="6:34" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="23" t="s">
+    <row r="4" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AK4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="6:40" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="6:40" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
       <c r="S6" s="16"/>
       <c r="Y6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="6:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="24"/>
+      <c r="AM6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="6:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="27"/>
       <c r="I7" s="12" t="s">
         <v>2</v>
       </c>
@@ -1114,8 +1206,17 @@
       <c r="V7" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="6:34" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="6:40" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
@@ -1136,11 +1237,20 @@
       <c r="V8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="Y8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="6:40" x14ac:dyDescent="0.25">
       <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
@@ -1164,14 +1274,23 @@
         <v>37</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F10" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="F10" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -1194,20 +1313,32 @@
         <v>13</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL10" s="1">
         <v>4</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="6:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F11" s="22"/>
+      <c r="AM10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="6:40" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F11" s="25"/>
       <c r="H11" s="13" t="s">
         <v>14</v>
       </c>
@@ -1231,11 +1362,20 @@
         <v>45</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F12" s="22"/>
+        <v>175</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="F12" s="25"/>
       <c r="H12" s="13" t="s">
         <v>15</v>
       </c>
@@ -1265,23 +1405,23 @@
         <v>65</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F13" s="22"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="F13" s="25"/>
       <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
@@ -1303,11 +1443,11 @@
         <v>26</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="6:34" x14ac:dyDescent="0.25">
-      <c r="F14" s="22"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="F14" s="25"/>
       <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
@@ -1345,31 +1485,31 @@
         <v>52</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="6:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="6:40" x14ac:dyDescent="0.25">
       <c r="H15" s="13" t="s">
         <v>18</v>
       </c>
@@ -1391,10 +1531,10 @@
         <v>27</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="6:34" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="6:40" x14ac:dyDescent="0.25">
       <c r="H16" s="13" t="s">
         <v>19</v>
       </c>
@@ -1420,13 +1560,19 @@
         <v>28</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H17" s="13" t="s">
         <v>20</v>
       </c>
@@ -1450,13 +1596,19 @@
         <v>64</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H18" s="13" t="s">
         <v>21</v>
       </c>
@@ -1478,10 +1630,16 @@
         <v>63</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H19" s="13" t="s">
         <v>22</v>
       </c>
@@ -1505,13 +1663,19 @@
         <v>36</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H20" s="13" t="s">
         <v>23</v>
       </c>
@@ -1533,10 +1697,10 @@
         <v>38</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H21" s="13" t="s">
         <v>39</v>
       </c>
@@ -1553,13 +1717,13 @@
         <v>40</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H22" s="13" t="s">
         <v>41</v>
       </c>
@@ -1576,13 +1740,13 @@
         <v>67</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H23" s="13" t="s">
         <v>42</v>
       </c>
@@ -1596,10 +1760,10 @@
         <v>50</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H24" s="13" t="s">
         <v>43</v>
       </c>
@@ -1613,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H25" s="13" t="s">
         <v>44</v>
       </c>
@@ -1640,25 +1804,25 @@
         <v>44</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="8:34" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H26" s="13" t="s">
         <v>47</v>
       </c>
@@ -1672,10 +1836,10 @@
         <v>48</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="8:34" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H27" s="13" t="s">
         <v>49</v>
       </c>
@@ -1689,10 +1853,10 @@
         <v>51</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H28" s="13" t="s">
         <v>53</v>
       </c>
@@ -1710,13 +1874,13 @@
         <v>54</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H29" s="13" t="s">
         <v>55</v>
       </c>
@@ -1733,13 +1897,13 @@
         <v>66</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="8:34" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H30" s="13" t="s">
         <v>61</v>
       </c>
@@ -1753,10 +1917,10 @@
         <v>62</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H31" s="13" t="s">
         <v>68</v>
       </c>
@@ -1770,10 +1934,10 @@
         <v>69</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="8:40" x14ac:dyDescent="0.25">
       <c r="H32" s="13" t="s">
         <v>70</v>
       </c>
@@ -1787,7 +1951,7 @@
         <v>71</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="8:34" x14ac:dyDescent="0.25">
@@ -1804,7 +1968,7 @@
         <v>74</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="8:34" x14ac:dyDescent="0.25">
@@ -1817,164 +1981,164 @@
       <c r="U34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="V34" s="5" t="s">
-        <v>76</v>
+      <c r="V34" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="AD35" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AE36" s="1" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H37" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AE37" s="1" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AE38" s="1" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="AE39" s="1" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="AF40" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="AF41" s="1" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H42" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V42" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="AF42" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>35</v>
@@ -1983,55 +2147,55 @@
         <v>35</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="P44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="AF44" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AG45" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H46" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>35</v>
@@ -2041,55 +2205,55 @@
       </c>
       <c r="S46" s="10"/>
       <c r="U46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V46" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="V46" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="AG46" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q47" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="AG47" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H48" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Q48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="V48" s="5" t="s">
+      <c r="AG48" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H49" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H49" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="M49" s="9"/>
       <c r="Q49" s="10" t="s">
@@ -2100,91 +2264,94 @@
       </c>
       <c r="S49" s="10"/>
       <c r="U49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V49" s="5" t="s">
+      <c r="AG49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H50" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AG49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H50" s="13" t="s">
+      <c r="Q50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Q50" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="V50" s="5" t="s">
+      <c r="AG50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H51" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AG50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H51" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="R51" s="10" t="s">
         <v>35</v>
       </c>
       <c r="S51" s="10"/>
       <c r="U51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="V51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH51" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H52" s="13" t="s">
+      <c r="I52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H53" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H53" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="R53" s="10" t="s">
         <v>35</v>
       </c>
       <c r="S53" s="10"/>
       <c r="U53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H54" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H54" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2200,16 +2367,16 @@
       </c>
       <c r="S54" s="10"/>
       <c r="U54" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="8:34" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="8:39" x14ac:dyDescent="0.25">
       <c r="AG61" s="21">
         <v>0.05</v>
       </c>
@@ -2263,7 +2430,7 @@
     <row r="68" spans="17:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
-      <c r="V68" s="26"/>
+      <c r="V68" s="22"/>
       <c r="AD68" s="21">
         <v>0.02</v>
       </c>
@@ -2271,7 +2438,7 @@
         <v>0.05</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH68" s="21">
         <v>0.01</v>
@@ -2284,8 +2451,8 @@
       <c r="U69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V69" s="26" t="s">
-        <v>155</v>
+      <c r="V69" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="AG69" s="21">
         <v>0.1</v>
@@ -2301,12 +2468,12 @@
       <c r="U70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V70" s="27">
+      <c r="V70" s="23">
         <f>AVERAGE(AD65:AE65)</f>
         <v>0.125</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="17:34" x14ac:dyDescent="0.25">
@@ -2316,12 +2483,12 @@
       <c r="U71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="V71" s="27">
+      <c r="V71" s="23">
         <f>AVERAGE(AD66:AE66)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="17:34" x14ac:dyDescent="0.25">
@@ -2331,12 +2498,12 @@
       <c r="U72" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V72" s="27">
+      <c r="V72" s="23">
         <f>AVERAGE(AD67:AE67)</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="17:34" x14ac:dyDescent="0.25">
@@ -2346,12 +2513,12 @@
       <c r="U73" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V73" s="27">
+      <c r="V73" s="23">
         <f>AVERAGE(AD68:AE68)</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="17:34" x14ac:dyDescent="0.25">
@@ -2361,21 +2528,21 @@
       <c r="U74" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="27">
+      <c r="V74" s="23">
         <f>AVERAGE(AG61:AH61)</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="X74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Z74" s="1" t="s">
+      <c r="AC74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AC74" s="1" t="s">
+      <c r="AD74" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="AD74" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="75" spans="17:34" x14ac:dyDescent="0.25">
@@ -2385,12 +2552,12 @@
       <c r="U75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V75" s="27">
+      <c r="V75" s="23">
         <f>AVERAGE(AG65:AH65)</f>
         <v>0.1</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="17:34" x14ac:dyDescent="0.25">
@@ -2400,12 +2567,12 @@
       <c r="U76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="V76" s="27">
+      <c r="V76" s="23">
         <f t="shared" ref="V76:V79" si="0">AVERAGE(AG66:AH66)</f>
         <v>0.3</v>
       </c>
       <c r="W76" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="17:34" x14ac:dyDescent="0.25">
@@ -2415,12 +2582,12 @@
       <c r="U77" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="V77" s="27">
+      <c r="V77" s="23">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="17:34" x14ac:dyDescent="0.25">
@@ -2430,12 +2597,12 @@
       <c r="U78" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V78" s="27">
+      <c r="V78" s="23">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="17:34" x14ac:dyDescent="0.25">
@@ -2445,17 +2612,17 @@
       <c r="U79" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V79" s="28">
+      <c r="V79" s="24">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2492,13 +2659,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2506,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -2515,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -2524,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2533,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -2542,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -2551,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -2560,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -2569,7 +2736,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -2578,7 +2745,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -2587,7 +2754,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="7"/>
     </row>

--- a/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
+++ b/NASKAH/Datasheet/DataGangguanMenstruasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gandiva-Protocol-Dana\NASKAH\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69001B0-2EFE-43BD-B9EB-5B1AA2E691CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA2ACB8-F0DF-4CAB-8013-79AB6049919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-36" windowWidth="17280" windowHeight="8880" xr2:uid="{F32E3143-85B8-4360-9165-F8A4A8938238}"/>
+    <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="9948" xr2:uid="{F32E3143-85B8-4360-9165-F8A4A8938238}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="192">
   <si>
     <t>Penyakit</t>
   </si>
@@ -180,9 +180,6 @@
     <t>G19</t>
   </si>
   <si>
-    <t>Infeksi dan mempunyai penyakit menular seksual</t>
-  </si>
-  <si>
     <t>G20</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Keluarnya darah haid tidak teratur</t>
   </si>
   <si>
-    <t>Mengalami kontrasepsi darurat</t>
-  </si>
-  <si>
     <t>G26</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>G31</t>
   </si>
   <si>
-    <t>Sakit kepala</t>
-  </si>
-  <si>
     <t>G32</t>
   </si>
   <si>
@@ -471,9 +462,6 @@
     <t>5%-10%</t>
   </si>
   <si>
-    <t>primer 5%</t>
-  </si>
-  <si>
     <t>sekunder 1%-2%</t>
   </si>
   <si>
@@ -577,13 +565,58 @@
   </si>
   <si>
     <t>Hair sutism</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Pusing atau Sakit kepala</t>
+  </si>
+  <si>
+    <t>Sedang hamil</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Memakai kontrasepsi darurat</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PERDARAHAN DILUAR MASA HAID</t>
+  </si>
+  <si>
+    <t>TERJADINYA PERDARAHAN DILUAR MASA HAID</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>sedikit</t>
+  </si>
+  <si>
+    <t>sangat</t>
+  </si>
+  <si>
+    <t>lebih banyak</t>
+  </si>
+  <si>
+    <t>primer sedikit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,11 +643,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Wingdings"/>
@@ -631,6 +659,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -703,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,23 +759,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -738,23 +784,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1071,13 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3597296D-1858-4ED9-A2DC-E54E7CD53A8C}">
-  <dimension ref="F4:AN82"/>
+  <dimension ref="F3:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="6.5546875" style="1" customWidth="1"/>
@@ -1085,142 +1134,160 @@
     <col min="9" max="9" width="3.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.109375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3.21875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="3.33203125" style="1" customWidth="1"/>
     <col min="16" max="18" width="3.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="10.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="48.21875" style="1" customWidth="1"/>
     <col min="21" max="21" width="23.6640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="35.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="46.5546875" style="1" customWidth="1"/>
     <col min="25" max="36" width="8.88671875" style="1"/>
     <col min="37" max="37" width="12.33203125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4.21875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4.33203125" style="1" customWidth="1"/>
     <col min="39" max="39" width="23.44140625" style="1" customWidth="1"/>
     <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="X3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AK4" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="6:40" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="6:40" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="6:44" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="6:44" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="16"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="15"/>
       <c r="Y6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="AM6" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="6:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="27"/>
-      <c r="I7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:44" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="29"/>
+      <c r="I7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="U7" s="8" t="s">
+      <c r="S7" s="12"/>
+      <c r="U7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="6:40" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f>AVERAGE(AQ6:AR6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:44" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="2"/>
@@ -1234,31 +1301,63 @@
       <c r="U8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>175</v>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>2</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="H9" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="H9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="2"/>
@@ -1270,37 +1369,72 @@
       <c r="U9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>177</v>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>4</v>
       </c>
       <c r="AL9" s="1">
         <v>3</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="F10" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="2"/>
@@ -1312,38 +1446,61 @@
       <c r="U10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>175</v>
+      <c r="V10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>26</v>
       </c>
       <c r="AL10" s="1">
         <v>4</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="6:40" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F11" s="25"/>
-      <c r="H11" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="6:44" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F11" s="27"/>
+      <c r="H11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="2"/>
@@ -1351,83 +1508,135 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="U11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>175</v>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z11" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>2</v>
       </c>
       <c r="AL11" s="1">
         <v>5</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="F12" s="25"/>
-      <c r="H12" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F12" s="27"/>
+      <c r="H12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="I12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="F13" s="25"/>
-      <c r="H13" s="13" t="s">
+      <c r="V12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC12" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG12" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F13" s="27"/>
+      <c r="H13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="2"/>
@@ -1439,84 +1648,127 @@
       <c r="U13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="F14" s="25"/>
-      <c r="H14" s="13" t="s">
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA13" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F14" s="27"/>
+      <c r="H14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="J14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="10"/>
+      <c r="Q14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="9"/>
       <c r="U14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="H15" s="13" t="s">
+      <c r="V14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA14" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB14" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD14" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG14" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH14" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="H15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M15" s="2"/>
@@ -1527,62 +1779,123 @@
       <c r="U15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="H16" s="13" t="s">
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB15" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="10"/>
+      <c r="R16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="9"/>
       <c r="U16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>177</v>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH16" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>13</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="L17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N17" s="2"/>
@@ -1592,31 +1905,60 @@
       <c r="U17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>177</v>
+      <c r="V17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>21</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="2"/>
@@ -1626,29 +1968,60 @@
       <c r="U18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>177</v>
+      <c r="V18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="Y18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC18" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>22</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="2"/>
@@ -1659,27 +2032,55 @@
       <c r="U19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>178</v>
+      <c r="W19" s="24"/>
+      <c r="Y19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z19" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB19" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>5</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J20" s="2"/>
@@ -1693,665 +2094,1690 @@
       <c r="U20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>178</v>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z20" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="10" t="s">
+      <c r="I21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>35</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>177</v>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA21" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="J22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>177</v>
+      <c r="V22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z22" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC22" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>177</v>
+      <c r="V23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>178</v>
+      <c r="V24" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD24" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="10"/>
+      <c r="I25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="9"/>
       <c r="U25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>176</v>
+      <c r="V25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG25" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>35</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="8:40" x14ac:dyDescent="0.25">
+      <c r="H27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="L27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB27" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="8:40" x14ac:dyDescent="0.25">
+      <c r="H28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="U28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB28" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH28" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="8:40" x14ac:dyDescent="0.25">
+      <c r="H29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA29" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="8:40" x14ac:dyDescent="0.25">
+      <c r="H30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC30" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="8:40" x14ac:dyDescent="0.25">
+      <c r="H31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB31" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="8:40" x14ac:dyDescent="0.25">
+      <c r="H32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB32" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD33" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="Y34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD34" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD35" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W36" s="24"/>
+      <c r="Y36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE36" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H37" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="Y37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE37" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG37" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE38" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF38" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="Y39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE39" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF40" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="W41" s="24"/>
+      <c r="Y41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF41" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H42" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="W43" s="24"/>
+      <c r="Y43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE43" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF43" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG43" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W44" s="24"/>
+      <c r="Y44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF44" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W45" s="24"/>
+      <c r="Y45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG45" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H46" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" s="9"/>
+      <c r="U46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG46" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH46" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG47" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="8:35" x14ac:dyDescent="0.25">
+      <c r="H48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W48" s="24"/>
+      <c r="Y48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG48" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H49" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="Q49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="9"/>
+      <c r="U49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG49" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH49" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>34</v>
+      </c>
+      <c r="AM49" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="10"/>
-      <c r="U28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="H32" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H33" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H36" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H38" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H39" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE39" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H40" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H41" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H42" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H43" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P43" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q43" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H44" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF44" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H45" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG45" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H46" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S46" s="10"/>
-      <c r="U46" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH46" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H47" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG47" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H48" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V48" s="5" t="s">
+    <row r="50" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AG48" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H49" s="13" t="s">
+      <c r="Q50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V50" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="Q49" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S49" s="10"/>
-      <c r="U49" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="V49" s="5" t="s">
+      <c r="W50" s="24"/>
+      <c r="Y50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG50" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H51" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AG49" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM49" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H50" s="13" t="s">
+      <c r="R51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="U51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH51" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H52" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Q50" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U50" s="5" t="s">
+      <c r="I52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="V50" s="5" t="s">
+      <c r="V52" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y52" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H53" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AG50" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H51" s="13" t="s">
+      <c r="R53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="U53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH53" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H54" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S51" s="10"/>
-      <c r="U51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH51" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H52" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H53" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="R53" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S53" s="10"/>
-      <c r="U53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH53" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H54" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2362,102 +3788,132 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S54" s="10"/>
-      <c r="U54" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="V54" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH54" s="1" t="s">
-        <v>178</v>
+      <c r="R54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="9"/>
+      <c r="U54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH54" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="AG61" s="21">
+      <c r="AG61" s="20">
         <v>0.05</v>
       </c>
-      <c r="AH61" s="21">
+      <c r="AH61" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="65" spans="17:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q65" s="3"/>
-      <c r="AD65" s="21">
+      <c r="AD65" s="20">
         <v>0.1</v>
       </c>
-      <c r="AE65" s="21">
+      <c r="AE65" s="20">
         <v>0.15</v>
       </c>
-      <c r="AG65" s="21">
+      <c r="AG65" s="20">
         <v>0.05</v>
       </c>
-      <c r="AH65" s="21">
+      <c r="AH65" s="20">
         <v>0.15</v>
       </c>
     </row>
     <row r="66" spans="17:34" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="AD66" s="21">
+      <c r="AD66" s="20">
         <v>0.01</v>
       </c>
-      <c r="AE66" s="21">
+      <c r="AE66" s="20">
         <v>0.02</v>
       </c>
-      <c r="AG66" s="21">
+      <c r="AG66" s="20">
         <v>0.25</v>
       </c>
-      <c r="AH66" s="21">
+      <c r="AH66" s="20">
         <v>0.35</v>
       </c>
     </row>
     <row r="67" spans="17:34" x14ac:dyDescent="0.25">
-      <c r="AD67" s="21">
+      <c r="AD67" s="20">
         <v>0.05</v>
       </c>
-      <c r="AE67" s="21">
+      <c r="AE67" s="20">
         <v>0.1</v>
       </c>
-      <c r="AG67" s="21">
+      <c r="AG67" s="20">
         <v>0.1</v>
       </c>
-      <c r="AH67" s="21">
+      <c r="AH67" s="20">
         <v>0.12</v>
       </c>
     </row>
     <row r="68" spans="17:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
-      <c r="V68" s="22"/>
-      <c r="AD68" s="21">
+      <c r="V68" s="21"/>
+      <c r="AD68" s="20">
         <v>0.02</v>
       </c>
-      <c r="AE68" s="21">
+      <c r="AE68" s="20">
         <v>0.05</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH68" s="21">
+        <v>151</v>
+      </c>
+      <c r="AH68" s="20">
         <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="17:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T69" s="8" t="s">
+      <c r="T69" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U69" s="8" t="s">
+      <c r="U69" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V69" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG69" s="21">
+      <c r="V69" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG69" s="20">
         <v>0.1</v>
       </c>
-      <c r="AH69" s="21">
+      <c r="AH69" s="20">
         <v>0.15</v>
       </c>
     </row>
@@ -2468,12 +3924,15 @@
       <c r="U70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V70" s="23">
+      <c r="V70" s="22">
         <f>AVERAGE(AD65:AE65)</f>
         <v>0.125</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="17:34" x14ac:dyDescent="0.25">
@@ -2483,12 +3942,15 @@
       <c r="U71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="V71" s="23">
+      <c r="V71" s="22">
         <f>AVERAGE(AD66:AE66)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="17:34" x14ac:dyDescent="0.25">
@@ -2498,12 +3960,15 @@
       <c r="U72" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V72" s="23">
+      <c r="V72" s="22">
         <f>AVERAGE(AD67:AE67)</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="17:34" x14ac:dyDescent="0.25">
@@ -2513,12 +3978,15 @@
       <c r="U73" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V73" s="23">
+      <c r="V73" s="22">
         <f>AVERAGE(AD68:AE68)</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="17:34" x14ac:dyDescent="0.25">
@@ -2528,21 +3996,30 @@
       <c r="U74" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="23">
+      <c r="V74" s="22">
         <f>AVERAGE(AG61:AH61)</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="17:34" x14ac:dyDescent="0.25">
@@ -2550,14 +4027,17 @@
         <v>7</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V75" s="23">
+        <v>55</v>
+      </c>
+      <c r="V75" s="22">
         <f>AVERAGE(AG65:AH65)</f>
         <v>0.1</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="17:34" x14ac:dyDescent="0.25">
@@ -2565,14 +4045,17 @@
         <v>8</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V76" s="23">
+        <v>56</v>
+      </c>
+      <c r="V76" s="22">
         <f t="shared" ref="V76:V79" si="0">AVERAGE(AG66:AH66)</f>
         <v>0.3</v>
       </c>
-      <c r="W76" s="21" t="s">
-        <v>141</v>
+      <c r="W76" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="17:34" x14ac:dyDescent="0.25">
@@ -2580,14 +4063,17 @@
         <v>9</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V77" s="23">
+        <v>57</v>
+      </c>
+      <c r="V77" s="22">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="17:34" x14ac:dyDescent="0.25">
@@ -2595,34 +4081,58 @@
         <v>10</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V78" s="23">
+        <v>58</v>
+      </c>
+      <c r="V78" s="22">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="17:34" x14ac:dyDescent="0.25">
-      <c r="T79" s="7" t="s">
+      <c r="T79" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U79" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V79" s="24">
+      <c r="U79" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V79" s="23">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="23:23" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="23:26" x14ac:dyDescent="0.25">
       <c r="W82" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="Z83" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="Z84" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="Z85" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2648,115 +4158,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
